--- a/sequences/main_conditions_03.xlsx
+++ b/sequences/main_conditions_03.xlsx
@@ -560,7 +560,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>face//face_01.jpg</t>
+          <t>book//book_01.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>face//face_16.jpg</t>
+          <t>book//book_16.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3508,7 +3508,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>face//face_02.jpg</t>
+          <t>book//book_02.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3709,7 +3709,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>face//face_36.jpg</t>
+          <t>book//book_36.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -4245,7 +4245,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -4379,7 +4379,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -4580,7 +4580,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>face//face_23.jpg</t>
+          <t>book//book_23.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -4915,7 +4915,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -4982,7 +4982,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -5384,7 +5384,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -5451,7 +5451,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -5786,7 +5786,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -5920,7 +5920,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -5987,7 +5987,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -6322,7 +6322,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -6389,7 +6389,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -6558,7 +6558,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>face//face_40.jpg</t>
+          <t>book//book_40.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -6590,7 +6590,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -6657,7 +6657,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -6724,7 +6724,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>face//face_21.jpg</t>
+          <t>book//book_21.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -6858,7 +6858,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>face//face_27.jpg</t>
+          <t>book//book_27.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -7126,7 +7126,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -7193,7 +7193,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -7260,7 +7260,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -7362,7 +7362,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>face//face_33.jpg</t>
+          <t>book//book_33.jpg</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -7394,7 +7394,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -7595,7 +7595,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -7630,7 +7630,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>face//face_06.jpg</t>
+          <t>book//book_06.jpg</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -7662,7 +7662,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -7729,7 +7729,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -7796,7 +7796,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -7863,7 +7863,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -7965,7 +7965,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>face//face_29.jpg</t>
+          <t>book//book_29.jpg</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -7997,7 +7997,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -8064,7 +8064,7 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -8198,7 +8198,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
@@ -8265,7 +8265,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -8399,7 +8399,7 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
@@ -8533,7 +8533,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
@@ -8600,7 +8600,7 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
@@ -8667,7 +8667,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -8734,7 +8734,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -8801,7 +8801,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -8935,7 +8935,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -9002,7 +9002,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -9069,7 +9069,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -9136,7 +9136,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -9203,7 +9203,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -9238,7 +9238,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>face//face_05.jpg</t>
+          <t>book//book_05.jpg</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -9270,7 +9270,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -9305,7 +9305,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>face//face_30.jpg</t>
+          <t>book//book_30.jpg</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -9538,7 +9538,7 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -9605,7 +9605,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -9672,7 +9672,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -9739,7 +9739,7 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
@@ -9806,7 +9806,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -9873,7 +9873,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
@@ -9940,7 +9940,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -10007,7 +10007,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -10074,7 +10074,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -10275,7 +10275,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -10342,7 +10342,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -10409,7 +10409,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -10476,7 +10476,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -10543,7 +10543,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -10610,7 +10610,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -10712,7 +10712,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>face//face_38.jpg</t>
+          <t>book//book_38.jpg</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -10811,7 +10811,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -10878,7 +10878,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -10945,7 +10945,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -11012,7 +11012,7 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -11079,7 +11079,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -11146,7 +11146,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
@@ -11213,7 +11213,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -11280,7 +11280,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -11347,7 +11347,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -11414,7 +11414,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -11481,7 +11481,7 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -11548,7 +11548,7 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -11615,7 +11615,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -11682,7 +11682,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -11749,7 +11749,7 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -11816,7 +11816,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -11883,7 +11883,7 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -11950,7 +11950,7 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -12017,7 +12017,7 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -12052,7 +12052,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>face//face_03.jpg</t>
+          <t>book//book_03.jpg</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -12084,7 +12084,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -12151,7 +12151,7 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -12218,7 +12218,7 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
@@ -12285,7 +12285,7 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
@@ -12352,7 +12352,7 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
@@ -12419,7 +12419,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -12486,7 +12486,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -12553,7 +12553,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>face//face_32.jpg</t>
+          <t>book//book_32.jpg</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -12620,7 +12620,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -12687,7 +12687,7 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -12754,7 +12754,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -12888,7 +12888,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -12955,7 +12955,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -13022,7 +13022,7 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -13089,7 +13089,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -13124,7 +13124,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>face//face_06.jpg</t>
+          <t>book//book_06.jpg</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -13156,7 +13156,7 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
@@ -13191,7 +13191,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>face//face_40.jpg</t>
+          <t>book//book_40.jpg</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -13223,7 +13223,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -13258,7 +13258,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>face//face_34.jpg</t>
+          <t>book//book_34.jpg</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -13290,7 +13290,7 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
@@ -13357,7 +13357,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -13424,7 +13424,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
@@ -13491,7 +13491,7 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
@@ -13558,7 +13558,7 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
@@ -13625,7 +13625,7 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
@@ -13692,7 +13692,7 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
@@ -13759,7 +13759,7 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
@@ -13826,7 +13826,7 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
@@ -13893,7 +13893,7 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
@@ -14027,7 +14027,7 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
@@ -14094,7 +14094,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
@@ -14161,7 +14161,7 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
@@ -14228,7 +14228,7 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
@@ -14263,7 +14263,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>face//face_12.jpg</t>
+          <t>book//book_12.jpg</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -14295,7 +14295,7 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
@@ -14362,7 +14362,7 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
@@ -14429,7 +14429,7 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
@@ -14496,7 +14496,7 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
@@ -14563,7 +14563,7 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
@@ -14630,7 +14630,7 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M212" t="inlineStr">
@@ -14697,7 +14697,7 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M213" t="inlineStr">
@@ -14764,7 +14764,7 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
@@ -14831,7 +14831,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
@@ -14898,7 +14898,7 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
@@ -14965,7 +14965,7 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M217" t="inlineStr">
@@ -15032,7 +15032,7 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M218" t="inlineStr">
@@ -15099,7 +15099,7 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M219" t="inlineStr">
@@ -15166,7 +15166,7 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
@@ -15233,7 +15233,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
@@ -15367,7 +15367,7 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
@@ -15434,7 +15434,7 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
@@ -15501,7 +15501,7 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M225" t="inlineStr">
@@ -15568,7 +15568,7 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M226" t="inlineStr">
@@ -15635,7 +15635,7 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M227" t="inlineStr">
@@ -15702,7 +15702,7 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
@@ -15836,7 +15836,7 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M230" t="inlineStr">
@@ -15903,7 +15903,7 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M231" t="inlineStr">
@@ -15970,7 +15970,7 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M232" t="inlineStr">
@@ -16005,7 +16005,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>face//face_08.jpg</t>
+          <t>book//book_08.jpg</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -16037,7 +16037,7 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M233" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>face//face_04.jpg</t>
+          <t>book//book_04.jpg</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -16104,7 +16104,7 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
@@ -16171,7 +16171,7 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M235" t="inlineStr">
@@ -16238,7 +16238,7 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
@@ -16305,7 +16305,7 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M237" t="inlineStr">
@@ -16340,7 +16340,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>face//face_20.jpg</t>
+          <t>book//book_20.jpg</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -16372,7 +16372,7 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M238" t="inlineStr">
@@ -16439,7 +16439,7 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M239" t="inlineStr">
@@ -16474,7 +16474,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>face//face_37.jpg</t>
+          <t>book//book_37.jpg</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -16506,7 +16506,7 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M240" t="inlineStr">
@@ -16573,7 +16573,7 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M241" t="inlineStr">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M242" t="inlineStr">
@@ -16707,7 +16707,7 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M243" t="inlineStr">
@@ -16774,7 +16774,7 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M244" t="inlineStr">
@@ -16841,7 +16841,7 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M245" t="inlineStr">
@@ -16908,7 +16908,7 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M246" t="inlineStr">
@@ -16975,7 +16975,7 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M247" t="inlineStr">
@@ -17042,7 +17042,7 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
@@ -17109,7 +17109,7 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M249" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M250" t="inlineStr">
@@ -17243,7 +17243,7 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M251" t="inlineStr">
@@ -17310,7 +17310,7 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
@@ -17377,7 +17377,7 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
@@ -17444,7 +17444,7 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
@@ -17511,7 +17511,7 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M255" t="inlineStr">
@@ -17578,7 +17578,7 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
@@ -17645,7 +17645,7 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M257" t="inlineStr">
@@ -17712,7 +17712,7 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
@@ -17779,7 +17779,7 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M259" t="inlineStr">
@@ -17846,7 +17846,7 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M260" t="inlineStr">
@@ -17913,7 +17913,7 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M261" t="inlineStr">
@@ -17980,7 +17980,7 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
@@ -18047,7 +18047,7 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
@@ -18114,7 +18114,7 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
@@ -18181,7 +18181,7 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M265" t="inlineStr">
@@ -18248,7 +18248,7 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M266" t="inlineStr">
@@ -18315,7 +18315,7 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M267" t="inlineStr">
@@ -18382,7 +18382,7 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
@@ -18449,7 +18449,7 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M269" t="inlineStr">
@@ -18516,7 +18516,7 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M270" t="inlineStr">
@@ -18583,7 +18583,7 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
@@ -18650,7 +18650,7 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
@@ -18717,7 +18717,7 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
@@ -18784,7 +18784,7 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
@@ -18851,7 +18851,7 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
@@ -18886,7 +18886,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>face//face_22.jpg</t>
+          <t>book//book_22.jpg</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -18918,7 +18918,7 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M276" t="inlineStr">
@@ -18985,7 +18985,7 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
@@ -19052,7 +19052,7 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M278" t="inlineStr">
@@ -19119,7 +19119,7 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M279" t="inlineStr">
@@ -19186,7 +19186,7 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M280" t="inlineStr">
@@ -19253,7 +19253,7 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
@@ -19320,7 +19320,7 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M282" t="inlineStr">
@@ -19387,7 +19387,7 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
@@ -19454,7 +19454,7 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
@@ -19521,7 +19521,7 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M285" t="inlineStr">
@@ -19588,7 +19588,7 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M286" t="inlineStr">
@@ -19655,7 +19655,7 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M287" t="inlineStr">
@@ -19722,7 +19722,7 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M288" t="inlineStr">
@@ -19789,7 +19789,7 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M289" t="inlineStr">
@@ -19856,7 +19856,7 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M290" t="inlineStr">
@@ -19923,7 +19923,7 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M291" t="inlineStr">
@@ -19990,7 +19990,7 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M292" t="inlineStr">
@@ -20057,7 +20057,7 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M293" t="inlineStr">
@@ -20124,7 +20124,7 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M294" t="inlineStr">
@@ -20191,7 +20191,7 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M295" t="inlineStr">
@@ -20258,7 +20258,7 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M296" t="inlineStr">
@@ -20325,7 +20325,7 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M297" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M298" t="inlineStr">
@@ -20459,7 +20459,7 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M299" t="inlineStr">
@@ -20526,7 +20526,7 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M300" t="inlineStr">
@@ -20561,7 +20561,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>face//face_28.jpg</t>
+          <t>book//book_28.jpg</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -20593,7 +20593,7 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M301" t="inlineStr">
@@ -20618,7 +20618,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>face//face_16.jpg</t>
+          <t>book//book_16.jpg</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -20660,7 +20660,7 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
@@ -20680,7 +20680,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>face//face_16.jpg</t>
+          <t>book//book_16.jpg</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -20727,7 +20727,7 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M303" t="inlineStr">
@@ -20794,7 +20794,7 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M304" t="inlineStr">
@@ -20861,7 +20861,7 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
@@ -20928,7 +20928,7 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M306" t="inlineStr">
@@ -20995,7 +20995,7 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M307" t="inlineStr">
@@ -21020,7 +21020,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>face//face_19.jpg</t>
+          <t>book//book_19.jpg</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -21062,7 +21062,7 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M308" t="inlineStr">
@@ -21082,7 +21082,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>face//face_19.jpg</t>
+          <t>book//book_19.jpg</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -21129,7 +21129,7 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M309" t="inlineStr">
@@ -21196,7 +21196,7 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M310" t="inlineStr">
@@ -21226,7 +21226,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>face//face_19.jpg</t>
+          <t>book//book_19.jpg</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -21263,7 +21263,7 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
@@ -21293,7 +21293,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>face//face_19.jpg</t>
+          <t>book//book_19.jpg</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -21330,7 +21330,7 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M312" t="inlineStr">
@@ -21397,7 +21397,7 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M313" t="inlineStr">
@@ -21422,7 +21422,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>face//face_32.jpg</t>
+          <t>book//book_32.jpg</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -21464,7 +21464,7 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M314" t="inlineStr">
@@ -21484,7 +21484,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>face//face_32.jpg</t>
+          <t>book//book_32.jpg</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -21531,7 +21531,7 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M315" t="inlineStr">
@@ -21598,7 +21598,7 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M316" t="inlineStr">
@@ -21665,7 +21665,7 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M317" t="inlineStr">
@@ -21732,7 +21732,7 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M318" t="inlineStr">
@@ -21762,7 +21762,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>face//face_32.jpg</t>
+          <t>book//book_32.jpg</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -21799,7 +21799,7 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M319" t="inlineStr">
@@ -21824,7 +21824,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>face//face_25.jpg</t>
+          <t>book//book_25.jpg</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -21866,7 +21866,7 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M320" t="inlineStr">
@@ -21886,7 +21886,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>face//face_25.jpg</t>
+          <t>book//book_25.jpg</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -21933,7 +21933,7 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M321" t="inlineStr">
@@ -22000,7 +22000,7 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M322" t="inlineStr">
@@ -22067,7 +22067,7 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M323" t="inlineStr">
@@ -22134,7 +22134,7 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M324" t="inlineStr">
@@ -22201,7 +22201,7 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M325" t="inlineStr">
@@ -22226,7 +22226,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>face//face_15.jpg</t>
+          <t>book//book_15.jpg</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -22268,7 +22268,7 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M326" t="inlineStr">
@@ -22288,7 +22288,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>face//face_15.jpg</t>
+          <t>book//book_15.jpg</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -22335,7 +22335,7 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M327" t="inlineStr">
@@ -22402,7 +22402,7 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M328" t="inlineStr">
@@ -22469,7 +22469,7 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M329" t="inlineStr">
@@ -22536,7 +22536,7 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M330" t="inlineStr">
@@ -22566,7 +22566,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>face//face_15.jpg</t>
+          <t>book//book_15.jpg</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -22603,7 +22603,7 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M331" t="inlineStr">
@@ -22628,7 +22628,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>face//face_36.jpg</t>
+          <t>book//book_36.jpg</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -22670,7 +22670,7 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M332" t="inlineStr">
@@ -22690,7 +22690,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>face//face_36.jpg</t>
+          <t>book//book_36.jpg</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -22737,7 +22737,7 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M333" t="inlineStr">
@@ -22804,7 +22804,7 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M334" t="inlineStr">
@@ -22871,7 +22871,7 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M335" t="inlineStr">
@@ -22901,7 +22901,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>face//face_36.jpg</t>
+          <t>book//book_36.jpg</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -22938,7 +22938,7 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M336" t="inlineStr">
@@ -23005,7 +23005,7 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M337" t="inlineStr">
@@ -23030,7 +23030,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>face//face_28.jpg</t>
+          <t>book//book_28.jpg</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -23072,7 +23072,7 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M338" t="inlineStr">
@@ -23092,7 +23092,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>face//face_28.jpg</t>
+          <t>book//book_28.jpg</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -23139,7 +23139,7 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M339" t="inlineStr">
@@ -23206,7 +23206,7 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M340" t="inlineStr">
@@ -23273,7 +23273,7 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M341" t="inlineStr">
@@ -23340,7 +23340,7 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M342" t="inlineStr">
@@ -23407,7 +23407,7 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M343" t="inlineStr">
@@ -23432,7 +23432,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>face//face_17.jpg</t>
+          <t>book//book_17.jpg</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -23474,7 +23474,7 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M344" t="inlineStr">
@@ -23494,7 +23494,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>face//face_17.jpg</t>
+          <t>book//book_17.jpg</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -23541,7 +23541,7 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M345" t="inlineStr">
@@ -23608,7 +23608,7 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M346" t="inlineStr">
@@ -23638,7 +23638,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>face//face_17.jpg</t>
+          <t>book//book_17.jpg</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -23675,7 +23675,7 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M347" t="inlineStr">
@@ -23742,7 +23742,7 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
@@ -23809,7 +23809,7 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M349" t="inlineStr">
@@ -23834,7 +23834,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>face//face_24.jpg</t>
+          <t>book//book_24.jpg</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M350" t="inlineStr">
@@ -23896,7 +23896,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>face//face_24.jpg</t>
+          <t>book//book_24.jpg</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -23943,7 +23943,7 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M351" t="inlineStr">
@@ -24010,7 +24010,7 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M352" t="inlineStr">
@@ -24077,7 +24077,7 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M353" t="inlineStr">
@@ -24144,7 +24144,7 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M354" t="inlineStr">
@@ -24174,7 +24174,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>face//face_24.jpg</t>
+          <t>book//book_24.jpg</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -24211,7 +24211,7 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M355" t="inlineStr">
@@ -24236,7 +24236,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>face//face_18.jpg</t>
+          <t>book//book_18.jpg</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -24278,7 +24278,7 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M356" t="inlineStr">
@@ -24298,7 +24298,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>face//face_18.jpg</t>
+          <t>book//book_18.jpg</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -24345,7 +24345,7 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
@@ -24412,7 +24412,7 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M358" t="inlineStr">
@@ -24479,7 +24479,7 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>left</t>
         </is>
       </c>
       <c r="M359" t="inlineStr">
@@ -24546,7 +24546,7 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>center</t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
@@ -24613,7 +24613,7 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>right</t>
         </is>
       </c>
       <c r="M361" t="inlineStr">
